--- a/100day/train_project/Pandas/grades.xlsx
+++ b/100day/train_project/Pandas/grades.xlsx
@@ -367,6 +367,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Python</t>
@@ -715,9 +720,7 @@
       <c r="C25" t="n">
         <v>63</v>
       </c>
-      <c r="D25" t="n">
-        <v>109</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -768,9 +771,7 @@
       <c r="B29" t="n">
         <v>23</v>
       </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>110</v>
       </c>
@@ -894,9 +895,7 @@
       <c r="B38" t="n">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
-        <v>133</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>72</v>
       </c>
@@ -975,9 +974,7 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>66</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>101</v>
       </c>
@@ -1009,9 +1006,7 @@
       <c r="C46" t="n">
         <v>40</v>
       </c>
-      <c r="D46" t="n">
-        <v>76</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1045,9 +1040,7 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>74</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>121</v>
       </c>
@@ -1132,9 +1125,7 @@
       <c r="B55" t="n">
         <v>118</v>
       </c>
-      <c r="C55" t="n">
-        <v>25</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>86</v>
       </c>
@@ -1160,9 +1151,7 @@
       <c r="B57" t="n">
         <v>12</v>
       </c>
-      <c r="C57" t="n">
-        <v>118</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>125</v>
       </c>
@@ -1216,9 +1205,7 @@
       <c r="B61" t="n">
         <v>59</v>
       </c>
-      <c r="C61" t="n">
-        <v>139</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
         <v>68</v>
       </c>
@@ -1300,9 +1287,7 @@
       <c r="B67" t="n">
         <v>25</v>
       </c>
-      <c r="C67" t="n">
-        <v>86</v>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
         <v>83</v>
       </c>
@@ -1608,9 +1593,7 @@
       <c r="B89" t="n">
         <v>112</v>
       </c>
-      <c r="C89" t="n">
-        <v>64</v>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
         <v>75</v>
       </c>
@@ -1619,9 +1602,7 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>93</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
         <v>76</v>
       </c>
@@ -1678,9 +1659,7 @@
       <c r="B94" t="n">
         <v>88</v>
       </c>
-      <c r="C94" t="n">
-        <v>62</v>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
         <v>34</v>
       </c>
@@ -1835,9 +1814,7 @@
       <c r="C105" t="n">
         <v>14</v>
       </c>
-      <c r="D105" t="n">
-        <v>44</v>
-      </c>
+      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2476,9 +2453,7 @@
       <c r="B151" t="n">
         <v>132</v>
       </c>
-      <c r="C151" t="n">
-        <v>98</v>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
         <v>78</v>
       </c>
